--- a/data/2024/ssg/7,43_DE-12.xlsx
+++ b/data/2024/ssg/7,43_DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="238">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>1.1981 -29.2009 ; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>540886-6</t>
@@ -1518,33 +1521,33 @@
         <v>31</v>
       </c>
       <c r="X6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="Y6" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1553,7 +1556,7 @@
         <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
@@ -1577,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
         <v>31</v>
@@ -1603,19 +1606,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -1630,13 +1633,13 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
         <v>31</v>
@@ -1651,10 +1654,10 @@
         <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S8" t="s">
         <v>31</v>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1689,13 +1692,13 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1704,13 +1707,13 @@
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
         <v>31</v>
@@ -1731,7 +1734,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
         <v>31</v>
@@ -1757,7 +1760,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1766,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -1784,7 +1787,7 @@
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
@@ -1802,13 +1805,13 @@
         <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S10" t="s">
         <v>31</v>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1843,13 +1846,13 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -1858,10 +1861,10 @@
         <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
@@ -1885,7 +1888,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S11" t="s">
         <v>31</v>
@@ -1906,12 +1909,12 @@
         <v>49</v>
       </c>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1920,16 +1923,16 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
         <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
         <v>31</v>
@@ -1938,7 +1941,7 @@
         <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
@@ -1956,13 +1959,13 @@
         <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
         <v>31</v>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1997,13 +2000,13 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2015,7 +2018,7 @@
         <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
@@ -2033,13 +2036,13 @@
         <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S13" t="s">
         <v>31</v>
@@ -2065,7 +2068,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2074,7 +2077,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -2089,10 +2092,10 @@
         <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
         <v>34</v>
@@ -2116,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S14" t="s">
         <v>31</v>
@@ -2142,22 +2145,22 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -2175,7 +2178,7 @@
         <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M15" t="s">
         <v>31</v>
@@ -2193,13 +2196,13 @@
         <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U15" t="s">
         <v>36</v>
@@ -2211,10 +2214,10 @@
         <v>31</v>
       </c>
       <c r="X15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2228,10 +2231,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -2243,10 +2246,10 @@
         <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -2270,7 +2273,7 @@
         <v>51</v>
       </c>
       <c r="R16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
         <v>31</v>
@@ -2296,7 +2299,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2305,13 +2308,13 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -2323,7 +2326,7 @@
         <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
@@ -2347,7 +2350,7 @@
         <v>31</v>
       </c>
       <c r="R17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S17" t="s">
         <v>31</v>
@@ -2373,19 +2376,19 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
         <v>66</v>
@@ -2400,7 +2403,7 @@
         <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
         <v>34</v>
@@ -2424,7 +2427,7 @@
         <v>31</v>
       </c>
       <c r="R18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s">
         <v>31</v>
@@ -2450,7 +2453,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2459,16 +2462,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
         <v>31</v>
@@ -2477,7 +2480,7 @@
         <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
@@ -2501,7 +2504,7 @@
         <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S19" t="s">
         <v>31</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2536,13 +2539,13 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
         <v>54</v>
@@ -2554,7 +2557,7 @@
         <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -2578,7 +2581,7 @@
         <v>31</v>
       </c>
       <c r="R20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S20" t="s">
         <v>31</v>
@@ -2604,19 +2607,19 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F21" t="s">
         <v>66</v>
@@ -2631,7 +2634,7 @@
         <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
@@ -2655,13 +2658,13 @@
         <v>31</v>
       </c>
       <c r="R21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U21" t="s">
         <v>31</v>
@@ -2676,30 +2679,30 @@
         <v>49</v>
       </c>
       <c r="Y21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -2708,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
@@ -2732,13 +2735,13 @@
         <v>31</v>
       </c>
       <c r="R22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U22" t="s">
         <v>36</v>
@@ -2750,15 +2753,15 @@
         <v>31</v>
       </c>
       <c r="X22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2767,13 +2770,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
         <v>54</v>
@@ -2782,10 +2785,10 @@
         <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -2809,7 +2812,7 @@
         <v>31</v>
       </c>
       <c r="R23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S23" t="s">
         <v>31</v>
@@ -2835,37 +2838,37 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
         <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s">
         <v>31</v>
@@ -2886,13 +2889,13 @@
         <v>31</v>
       </c>
       <c r="R24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U24" t="s">
         <v>36</v>
@@ -2904,15 +2907,15 @@
         <v>31</v>
       </c>
       <c r="X24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2921,7 +2924,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
@@ -2939,7 +2942,7 @@
         <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -2957,13 +2960,13 @@
         <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S25" t="s">
         <v>31</v>
@@ -2989,10 +2992,10 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -3001,10 +3004,10 @@
         <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
         <v>54</v>
@@ -3040,13 +3043,13 @@
         <v>31</v>
       </c>
       <c r="R26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U26" t="s">
         <v>31</v>
@@ -3066,19 +3069,19 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
@@ -3093,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s">
         <v>56</v>
@@ -3117,13 +3120,13 @@
         <v>31</v>
       </c>
       <c r="R27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U27" t="s">
         <v>36</v>
@@ -3135,15 +3138,15 @@
         <v>31</v>
       </c>
       <c r="X27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3152,7 +3155,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -3167,13 +3170,13 @@
         <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s">
         <v>31</v>
@@ -3194,7 +3197,7 @@
         <v>31</v>
       </c>
       <c r="R28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S28" t="s">
         <v>31</v>
@@ -3220,7 +3223,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -3229,13 +3232,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
         <v>54</v>
@@ -3271,7 +3274,7 @@
         <v>31</v>
       </c>
       <c r="R29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S29" t="s">
         <v>31</v>
@@ -3297,7 +3300,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -3306,28 +3309,28 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" t="s">
         <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
@@ -3348,7 +3351,7 @@
         <v>31</v>
       </c>
       <c r="R30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S30" t="s">
         <v>31</v>
@@ -3374,7 +3377,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3383,16 +3386,16 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>31</v>
@@ -3401,10 +3404,10 @@
         <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
         <v>31</v>
@@ -3425,7 +3428,7 @@
         <v>31</v>
       </c>
       <c r="R31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S31" t="s">
         <v>31</v>
@@ -3451,7 +3454,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -3460,13 +3463,13 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
         <v>54</v>
@@ -3475,10 +3478,10 @@
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s">
         <v>56</v>
@@ -3502,7 +3505,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S32" t="s">
         <v>31</v>
@@ -3528,7 +3531,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -3537,10 +3540,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -3552,10 +3555,10 @@
         <v>31</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
         <v>34</v>
@@ -3579,7 +3582,7 @@
         <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S33" t="s">
         <v>31</v>
